--- a/test/rezultatai.xlsx
+++ b/test/rezultatai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominykas.gudavicius\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD5ECC3-DE9B-4759-BE4A-25EF2D3208D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7024CE0-0408-4468-8E44-2E7EC51307FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="340" windowWidth="17940" windowHeight="9470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,43 +438,23 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2">
         <f>SUM(C2:G2)</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2">
         <f>SUM(J2:N2)+H2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -483,7 +463,7 @@
       <c r="U2" s="2"/>
       <c r="V2">
         <f>O2+SUM(Q2:U2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -492,7 +472,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2">
         <f>V2+SUM(X2:AB2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -501,47 +481,27 @@
       <c r="AI2" s="2"/>
       <c r="AJ2">
         <f>AC2+SUM(AE2:AI2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3">
         <f>SUM(C3:G3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
       <c r="O3">
         <f>SUM(J3:N3)+H3</f>
         <v>0</v>
@@ -561,7 +521,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC6" si="0">V3+SUM(X3:AB3)</f>
+        <f>V3+SUM(X3:AB3)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="2"/>
@@ -570,7 +530,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ6" si="1">AC3+SUM(AE3:AI3)</f>
+        <f>AC3+SUM(AE3:AI3)</f>
         <v>0</v>
       </c>
     </row>
@@ -578,40 +538,20 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4">
         <f>SUM(J4:N4)+H4</f>
         <v>0</v>
@@ -631,7 +571,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4">
-        <f t="shared" si="0"/>
+        <f>V4+SUM(X4:AB4)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="2"/>
@@ -640,7 +580,7 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4">
-        <f t="shared" si="1"/>
+        <f>AC4+SUM(AE4:AI4)</f>
         <v>0</v>
       </c>
     </row>
@@ -648,43 +588,23 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>2</v>
-      </c>
-      <c r="N5" s="4">
-        <v>3</v>
-      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5">
         <f>SUM(J5:N5)+H5</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -693,7 +613,7 @@
       <c r="U5" s="2"/>
       <c r="V5">
         <f>O5+SUM(Q5:U5)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -701,8 +621,8 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>V5+SUM(X5:AB5)</f>
+        <v>0</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -710,51 +630,31 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>AC5+SUM(AE5:AI5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6">
         <f>SUM(C6:G6)</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6">
         <f>SUM(J6:N6)+H6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -763,7 +663,7 @@
       <c r="U6" s="2"/>
       <c r="V6">
         <f>O6+SUM(Q6:U6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -771,8 +671,8 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>V6+SUM(X6:AB6)</f>
+        <v>0</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -780,8 +680,8 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>AC6+SUM(AE6:AI6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
@@ -948,6 +848,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>